--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1152774.636765328</v>
+        <v>1131533.859022984</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11268677.0808175</v>
+        <v>11268677.08081749</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673264</v>
+        <v>4171427.157673261</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9933640.93413529</v>
+        <v>9933640.934135288</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>88.81177623069686</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752157</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938909</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>202.2892927417198</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664352</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958693</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183558</v>
+        <v>20.90078060183545</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459917</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>62.58515663460766</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>126.2565614811577</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>238.4036228181555</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>71.54479284754792</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>55.33203954752706</v>
+        <v>78.58757786260207</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>170.718811997385</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.0074333304192</v>
+        <v>127.3098536409985</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>83.4336749891492</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9283254770339</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.6706554955379</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0820285730592</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.580373985511</v>
       </c>
       <c r="H9" t="n">
-        <v>95.20719302029241</v>
+        <v>95.20719302029249</v>
       </c>
       <c r="I9" t="n">
-        <v>28.69192256658229</v>
+        <v>28.6919225665826</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>138.933559886479</v>
+        <v>138.9335598864792</v>
       </c>
       <c r="T9" t="n">
         <v>193.0580243952342</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>149.0849862156821</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>110.9981720099438</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>198.2563003669324</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>179.0582074077648</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.62576840237777</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>253.7910016824693</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>269.4839909676777</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>328.9725371167041</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>168.1158122680967</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>36.63188116405794</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.2419515106222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>72.57171105914853</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>170.4541150725685</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>18.12224013931728</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>379.6746187189615</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>321.4267434728706</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>180.0376525794167</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>138.0957464459792</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2377,16 +2377,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>8.751194497889395</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>80.50796942908572</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>149.2419515106229</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>168.1158122680967</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>233.3072717231673</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>97.27989568773765</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>184.6448939492139</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>328.0423659626492</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>58.81098638694253</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>142.3844270995955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>308.8109618228764</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>95.92502041856162</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>118.0932809216403</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>103.6547954827584</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>53.85366032725333</v>
       </c>
       <c r="G35" t="n">
-        <v>289.0908630279714</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>35.19569619650092</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>213.4383553921874</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>174.7869190180876</v>
       </c>
       <c r="U38" t="n">
-        <v>218.5174356271565</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>6.380068175847859</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.233474123075</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>14.31259208839343</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>75.83680089291343</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>60.76903089633826</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>36.89863216765678</v>
       </c>
       <c r="T44" t="n">
-        <v>145.2477902017526</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>80.71606764504736</v>
       </c>
       <c r="G46" t="n">
-        <v>45.10683729225598</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1704.478944518418</v>
+        <v>1408.399556799664</v>
       </c>
       <c r="C2" t="n">
-        <v>1704.478944518418</v>
+        <v>1408.399556799664</v>
       </c>
       <c r="D2" t="n">
-        <v>1704.478944518418</v>
+        <v>1408.399556799664</v>
       </c>
       <c r="E2" t="n">
-        <v>1318.690691920174</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F2" t="n">
-        <v>907.7047871305659</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G2" t="n">
-        <v>490.6170053669933</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H2" t="n">
-        <v>172.3938901395026</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J2" t="n">
-        <v>241.340818553348</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>392.0318096650907</v>
+        <v>392.0318096650767</v>
       </c>
       <c r="L2" t="n">
-        <v>531.3604655063416</v>
+        <v>531.3604655063299</v>
       </c>
       <c r="M2" t="n">
-        <v>1163.078276489651</v>
+        <v>1163.078276489642</v>
       </c>
       <c r="N2" t="n">
-        <v>1790.385944549495</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O2" t="n">
-        <v>1960.554969866452</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P2" t="n">
-        <v>2389.870016205744</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.045976980642</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.045976980642</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U2" t="n">
-        <v>2635.045976980642</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V2" t="n">
-        <v>2430.713358049612</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W2" t="n">
-        <v>2077.944702779498</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.478944518418</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="Y2" t="n">
-        <v>1704.478944518418</v>
+        <v>1794.999396863786</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D3" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452694</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044921</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929665</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J3" t="n">
-        <v>171.3601713965078</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K3" t="n">
-        <v>238.9679910598636</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L3" t="n">
-        <v>743.3295309259804</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M3" t="n">
-        <v>1383.874880393083</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N3" t="n">
-        <v>1638.90525854511</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.341267297832</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P3" t="n">
-        <v>2612.309035778667</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4442,7 +4442,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V3" t="n">
         <v>1804.187096684975</v>
@@ -4454,7 +4454,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.6371024675198</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="C4" t="n">
-        <v>52.70091953961286</v>
+        <v>883.6994180710508</v>
       </c>
       <c r="D4" t="n">
-        <v>52.70091953961286</v>
+        <v>733.582778658715</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961286</v>
+        <v>585.6696850763219</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961286</v>
+        <v>438.7797375784115</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961286</v>
+        <v>270.1728925737949</v>
       </c>
       <c r="H4" t="n">
-        <v>52.70091953961286</v>
+        <v>115.91824947356</v>
       </c>
       <c r="I4" t="n">
         <v>52.70091953961286</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961286</v>
       </c>
       <c r="K4" t="n">
-        <v>153.7488491352219</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L4" t="n">
-        <v>338.5818440360393</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M4" t="n">
-        <v>543.8514447552762</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N4" t="n">
-        <v>749.6748095913796</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O4" t="n">
-        <v>923.7697049799775</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P4" t="n">
-        <v>1049.217281578592</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q4" t="n">
-        <v>1052.635600998952</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.635600998952</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.635600998952</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>925.1037207149541</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U4" t="n">
-        <v>925.1037207149541</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V4" t="n">
-        <v>670.4192325090672</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W4" t="n">
-        <v>670.4192325090672</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X4" t="n">
-        <v>442.4296816110499</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y4" t="n">
-        <v>221.6371024675198</v>
+        <v>1052.635600998958</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1559.502432140532</v>
+        <v>953.0420736155686</v>
       </c>
       <c r="C5" t="n">
-        <v>1559.502432140532</v>
+        <v>953.0420736155686</v>
       </c>
       <c r="D5" t="n">
-        <v>1318.690691920173</v>
+        <v>953.0420736155686</v>
       </c>
       <c r="E5" t="n">
-        <v>1318.690691920173</v>
+        <v>953.0420736155686</v>
       </c>
       <c r="F5" t="n">
-        <v>907.7047871305651</v>
+        <v>542.0561688259611</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>124.9683870623886</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>124.9683870623886</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>1186.57070441754</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M5" t="n">
-        <v>1373.270117242947</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N5" t="n">
-        <v>2000.577785302794</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O5" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P5" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4600,19 +4600,19 @@
         <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2264.031077745182</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V5" t="n">
-        <v>1932.968190401612</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W5" t="n">
-        <v>1932.968190401612</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X5" t="n">
-        <v>1559.502432140532</v>
+        <v>953.0420736155686</v>
       </c>
       <c r="Y5" t="n">
-        <v>1559.502432140532</v>
+        <v>953.0420736155686</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>208.9564317595986</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>346.1860297752926</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M6" t="n">
-        <v>986.7313792423972</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N6" t="n">
-        <v>1638.905258545106</v>
+        <v>1477.220264837782</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.341267297829</v>
+        <v>2026.656273590505</v>
       </c>
       <c r="P6" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>658.8264059328595</v>
+        <v>684.1020327962314</v>
       </c>
       <c r="C7" t="n">
-        <v>489.8902230049526</v>
+        <v>684.1020327962314</v>
       </c>
       <c r="D7" t="n">
-        <v>489.8902230049526</v>
+        <v>533.9853933838956</v>
       </c>
       <c r="E7" t="n">
-        <v>341.9771294225595</v>
+        <v>386.0722998015025</v>
       </c>
       <c r="F7" t="n">
-        <v>195.0871819246492</v>
+        <v>239.1823523035921</v>
       </c>
       <c r="G7" t="n">
-        <v>195.0871819246492</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0871819246492</v>
+        <v>70.57550729897548</v>
       </c>
       <c r="I7" t="n">
         <v>70.57550729897548</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>658.8264059328595</v>
+        <v>973.2542092185515</v>
       </c>
       <c r="U7" t="n">
-        <v>658.8264059328595</v>
+        <v>684.1020327962314</v>
       </c>
       <c r="V7" t="n">
-        <v>658.8264059328595</v>
+        <v>684.1020327962314</v>
       </c>
       <c r="W7" t="n">
-        <v>658.8264059328595</v>
+        <v>684.1020327962314</v>
       </c>
       <c r="X7" t="n">
-        <v>658.8264059328595</v>
+        <v>684.1020327962314</v>
       </c>
       <c r="Y7" t="n">
-        <v>658.8264059328595</v>
+        <v>684.1020327962314</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1505.538149670595</v>
+        <v>978.0708886860491</v>
       </c>
       <c r="C8" t="n">
-        <v>1136.575632730184</v>
+        <v>978.0708886860491</v>
       </c>
       <c r="D8" t="n">
-        <v>964.1323882883805</v>
+        <v>978.0708886860491</v>
       </c>
       <c r="E8" t="n">
-        <v>964.1323882883805</v>
+        <v>592.2826360878048</v>
       </c>
       <c r="F8" t="n">
-        <v>553.146483498773</v>
+        <v>181.2967312981972</v>
       </c>
       <c r="G8" t="n">
-        <v>136.9773589225919</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H8" t="n">
-        <v>136.9773589225919</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J8" t="n">
-        <v>150.3534493702426</v>
+        <v>150.3534493702412</v>
       </c>
       <c r="K8" t="n">
-        <v>347.4477960253915</v>
+        <v>347.447796025388</v>
       </c>
       <c r="L8" t="n">
-        <v>628.8625231833507</v>
+        <v>999.6216753280971</v>
       </c>
       <c r="M8" t="n">
-        <v>973.6600674035878</v>
+        <v>1344.419219548331</v>
       </c>
       <c r="N8" t="n">
-        <v>1328.650604742875</v>
+        <v>1699.409756887616</v>
       </c>
       <c r="O8" t="n">
-        <v>1733.849319648091</v>
+        <v>2206.063643274684</v>
       </c>
       <c r="P8" t="n">
-        <v>2292.639547223584</v>
+        <v>2446.273149760407</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.045976980643</v>
+        <v>2578.487738764159</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2499.764840135154</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2288.986400240672</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2035.368189560814</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.045976980643</v>
+        <v>1704.305302217243</v>
       </c>
       <c r="W8" t="n">
-        <v>2282.277321710529</v>
+        <v>1351.536646947129</v>
       </c>
       <c r="X8" t="n">
-        <v>2282.277321710529</v>
+        <v>978.0708886860491</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.137989734717</v>
+        <v>978.0708886860491</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>943.960865978123</v>
+        <v>943.9608659781235</v>
       </c>
       <c r="C9" t="n">
-        <v>769.507836696996</v>
+        <v>769.5078366969965</v>
       </c>
       <c r="D9" t="n">
-        <v>620.5734270357448</v>
+        <v>620.5734270357452</v>
       </c>
       <c r="E9" t="n">
-        <v>461.3359720302893</v>
+        <v>461.3359720302897</v>
       </c>
       <c r="F9" t="n">
-        <v>314.8014140571743</v>
+        <v>314.8014140571746</v>
       </c>
       <c r="G9" t="n">
-        <v>177.8515413445368</v>
+        <v>177.8515413445372</v>
       </c>
       <c r="H9" t="n">
-        <v>81.6826595058576</v>
+        <v>81.68265950585791</v>
       </c>
       <c r="I9" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J9" t="n">
-        <v>92.04425036294116</v>
+        <v>92.04425036294032</v>
       </c>
       <c r="K9" t="n">
-        <v>237.4430939784687</v>
+        <v>499.2636786209192</v>
       </c>
       <c r="L9" t="n">
-        <v>846.4042655568994</v>
+        <v>1108.224850199348</v>
       </c>
       <c r="M9" t="n">
-        <v>1147.964438473877</v>
+        <v>1409.785023116323</v>
       </c>
       <c r="N9" t="n">
-        <v>1471.914656763415</v>
+        <v>1733.735241405859</v>
       </c>
       <c r="O9" t="n">
-        <v>1772.461686597576</v>
+        <v>2007.86660712982</v>
       </c>
       <c r="P9" t="n">
-        <v>2288.421350149429</v>
+        <v>2496.397865007921</v>
       </c>
       <c r="Q9" t="n">
-        <v>2580.628951879124</v>
+        <v>2580.628951879125</v>
       </c>
       <c r="R9" t="n">
-        <v>2580.628951879124</v>
+        <v>2580.628951879125</v>
       </c>
       <c r="S9" t="n">
         <v>2440.292022700863</v>
       </c>
       <c r="T9" t="n">
-        <v>2245.283917251131</v>
+        <v>2245.283917251132</v>
       </c>
       <c r="U9" t="n">
         <v>2017.177466928622</v>
       </c>
       <c r="V9" t="n">
-        <v>1782.025358696879</v>
+        <v>1782.02535869688</v>
       </c>
       <c r="W9" t="n">
         <v>1527.788001968678</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>760.3308608662177</v>
+        <v>516.4401435478233</v>
       </c>
       <c r="C10" t="n">
-        <v>760.3308608662177</v>
+        <v>347.5039606199164</v>
       </c>
       <c r="D10" t="n">
-        <v>610.2142214538819</v>
+        <v>347.5039606199164</v>
       </c>
       <c r="E10" t="n">
-        <v>462.3011278714888</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F10" t="n">
-        <v>315.4111803735785</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G10" t="n">
-        <v>315.4111803735785</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H10" t="n">
-        <v>164.8202852062228</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J10" t="n">
-        <v>63.73618496959509</v>
+        <v>63.73618496959455</v>
       </c>
       <c r="K10" t="n">
-        <v>211.7073526842341</v>
+        <v>211.7073526842327</v>
       </c>
       <c r="L10" t="n">
-        <v>456.5859372719542</v>
+        <v>456.5859372719517</v>
       </c>
       <c r="M10" t="n">
-        <v>725.1651933031187</v>
+        <v>725.165193303115</v>
       </c>
       <c r="N10" t="n">
-        <v>992.7928513518693</v>
+        <v>992.7928513518644</v>
       </c>
       <c r="O10" t="n">
-        <v>1223.974014837077</v>
+        <v>1223.974014837072</v>
       </c>
       <c r="P10" t="n">
-        <v>1398.2687557499</v>
+        <v>1398.268755749893</v>
       </c>
       <c r="Q10" t="n">
-        <v>1435.506319795798</v>
+        <v>1435.506319795791</v>
       </c>
       <c r="R10" t="n">
-        <v>1435.506319795798</v>
+        <v>1435.506319795791</v>
       </c>
       <c r="S10" t="n">
-        <v>1235.24743053627</v>
+        <v>1435.506319795791</v>
       </c>
       <c r="T10" t="n">
-        <v>1235.24743053627</v>
+        <v>1435.506319795791</v>
       </c>
       <c r="U10" t="n">
-        <v>1235.24743053627</v>
+        <v>1435.506319795791</v>
       </c>
       <c r="V10" t="n">
-        <v>1235.24743053627</v>
+        <v>1254.639443626331</v>
       </c>
       <c r="W10" t="n">
-        <v>1235.24743053627</v>
+        <v>965.2222735893707</v>
       </c>
       <c r="X10" t="n">
-        <v>1007.257879638253</v>
+        <v>737.2327226913534</v>
       </c>
       <c r="Y10" t="n">
-        <v>941.9793256964574</v>
+        <v>516.4401435478233</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.526882613612</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C11" t="n">
-        <v>1036.564365673201</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D11" t="n">
-        <v>678.2986670664502</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E11" t="n">
-        <v>678.2986670664502</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>678.2986670664502</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993395</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267231</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.03470992366</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653546</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.266054653546</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1792.126722677734</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5126,40 +5126,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>2291.674678112795</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1922.712161172384</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1564.446462565633</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3155.791869823214</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>3155.791869823214</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2678.274518176917</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5360,10 +5360,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>717.3698800184446</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>548.4336970905377</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>398.317057678202</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>250.4039640958089</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>103.5140165978985</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>103.5140165978985</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W16" t="n">
-        <v>1424.011591242373</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X16" t="n">
-        <v>1424.011591242373</v>
+        <v>899.0183448486844</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>899.0183448486844</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1179.52858457759</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C17" t="n">
-        <v>810.5660676371781</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>452.3003690304276</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>66.51211643218338</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>66.51211643218338</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794322</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2682.502170148718</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W17" t="n">
-        <v>2329.733514878603</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X17" t="n">
-        <v>1956.267756617523</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y17" t="n">
-        <v>1566.128424641711</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>182.1430866838555</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>182.1430866838555</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>182.1430866838555</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>182.1430866838555</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>182.1430866838555</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>182.1430866838555</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1356.67533979849</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1101.990851592603</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>812.5736815556427</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>584.5841306576253</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y19" t="n">
-        <v>363.7915515140952</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2342.888901953459</v>
+        <v>2212.771568013855</v>
       </c>
       <c r="C20" t="n">
-        <v>1973.926385013048</v>
+        <v>1843.809051073443</v>
       </c>
       <c r="D20" t="n">
-        <v>1615.660686406297</v>
+        <v>1485.543352466693</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>1099.755099868448</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>688.769195078841</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
@@ -5755,7 +5755,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>3119.628073993393</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X20" t="n">
-        <v>3119.628073993393</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y20" t="n">
-        <v>2729.488742017581</v>
+        <v>2599.371408077977</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5837,40 +5837,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1464.823389952862</v>
+        <v>793.5839474470786</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952862</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952862</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952862</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952862</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952862</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952862</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193525</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763051</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888695</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682808</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645847</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.12878874783</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="Y22" t="n">
-        <v>1540.3362096043</v>
+        <v>975.2324122773183</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1986.901740067214</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C23" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
@@ -5992,7 +5992,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6001,7 +6001,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2746.967338392416</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2746.967338392416</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2373.501580131336</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y23" t="n">
-        <v>2373.501580131336</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2489.924953962485</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C25" t="n">
-        <v>2320.988771034578</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D25" t="n">
-        <v>2170.872131622243</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.95903803985</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="F25" t="n">
-        <v>1876.069090541939</v>
+        <v>147.8332976736841</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>2822.322864763051</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>2671.573418792725</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V25" t="n">
-        <v>2671.573418792725</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W25" t="n">
-        <v>2671.573418792725</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X25" t="n">
-        <v>2671.573418792725</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y25" t="n">
-        <v>2671.573418792725</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1575.915835277607</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V26" t="n">
-        <v>3155.791869823214</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W26" t="n">
-        <v>3155.791869823214</v>
+        <v>2726.12076557862</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>2352.65500731754</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1962.515675341729</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2392.59927678083</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C28" t="n">
-        <v>2223.663093852923</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>2073.546454440588</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>1925.633360858195</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>1778.743413360284</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>1611.040576735003</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V28" t="n">
-        <v>3312.447041689578</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W28" t="n">
-        <v>3023.029871652618</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X28" t="n">
-        <v>2795.0403207546</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y28" t="n">
-        <v>2574.24774161107</v>
+        <v>333.710820256795</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1418.660964416653</v>
+        <v>1921.870414581995</v>
       </c>
       <c r="C29" t="n">
-        <v>1418.660964416653</v>
+        <v>1552.907897641583</v>
       </c>
       <c r="D29" t="n">
-        <v>1418.660964416653</v>
+        <v>1194.642199034832</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>808.8539464365881</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>397.8680416469805</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
@@ -6466,13 +6466,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060172</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923659</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653545</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X29" t="n">
-        <v>1808.800296392465</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y29" t="n">
-        <v>1418.660964416653</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="30">
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>521.2725633630544</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>521.2725633630544</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>371.1559239507186</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>223.2428303683255</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H31" t="n">
         <v>163.8377936138381</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1927.294548088493</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>1637.877378051532</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>521.2725633630544</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2288.135186201105</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2678.274518176917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2678.274518176917</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X32" t="n">
-        <v>2678.274518176917</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y32" t="n">
-        <v>2288.135186201105</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>943.7005868594143</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="C34" t="n">
-        <v>774.7644039315074</v>
+        <v>651.5308283972846</v>
       </c>
       <c r="D34" t="n">
-        <v>624.6477645191717</v>
+        <v>501.4141889849489</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>353.5010954025557</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218342</v>
@@ -6891,19 +6891,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1600.826119039071</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1346.141630833184</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>1346.141630833184</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>1346.141630833184</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y34" t="n">
-        <v>1125.349051689654</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1127.748203495403</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C35" t="n">
-        <v>758.7856865549918</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D35" t="n">
-        <v>400.5199879482413</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E35" t="n">
-        <v>400.5199879482413</v>
+        <v>535.9822032813822</v>
       </c>
       <c r="F35" t="n">
-        <v>400.5199879482413</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y35" t="n">
-        <v>1514.348043559525</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>826.5851666348717</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C37" t="n">
-        <v>657.6489837069648</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="D37" t="n">
-        <v>507.5323442946291</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="E37" t="n">
-        <v>359.619250712236</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="F37" t="n">
-        <v>212.7293032143256</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.700249712546</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1457.015761506659</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>1457.015761506659</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>1229.026210608642</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1008.233631465111</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="U38" t="n">
-        <v>3104.881139157497</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V38" t="n">
-        <v>2773.818251813927</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W38" t="n">
-        <v>2421.049596543812</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X38" t="n">
-        <v>2047.583838282732</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y38" t="n">
-        <v>2047.583838282732</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7365,19 +7365,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.527932658019</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1705.527932658019</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>1705.527932658019</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>1477.538381760002</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2047.583838282732</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>3311.148657883521</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.252265792695</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W41" t="n">
-        <v>2807.649436607934</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X41" t="n">
-        <v>2434.183678346854</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y41" t="n">
-        <v>2434.183678346854</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="42">
@@ -7493,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V43" t="n">
-        <v>1927.294548088493</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>741.7508393439803</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1091.323932370578</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C44" t="n">
-        <v>722.3614154301667</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>364.0957168234162</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.334475985275</v>
       </c>
       <c r="T44" t="n">
-        <v>3178.890882011441</v>
+        <v>3082.356728369497</v>
       </c>
       <c r="U44" t="n">
-        <v>2925.360405285277</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="V44" t="n">
-        <v>2594.297517941706</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="W44" t="n">
-        <v>2241.528862671592</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X44" t="n">
-        <v>1868.063104410512</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y44" t="n">
-        <v>1477.9237724347</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>725.9304417640992</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C46" t="n">
-        <v>556.9942588361923</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D46" t="n">
-        <v>406.8776194238566</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E46" t="n">
-        <v>258.9645258414635</v>
+        <v>315.7463345171083</v>
       </c>
       <c r="F46" t="n">
-        <v>112.0745783435531</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218342</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1645.778206672847</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>1645.778206672847</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W46" t="n">
-        <v>1356.361036635886</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X46" t="n">
-        <v>1128.371485737869</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y46" t="n">
-        <v>907.5789065943389</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>68.81599650217393</v>
+        <v>68.81599650215671</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N3" t="n">
-        <v>56.94306717107528</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>406.4991080837292</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>2.166261194686115</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>89.54312379457446</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>271.703656366032</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>374.5041940856087</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>84.16815968653827</v>
+        <v>186.6481308803319</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.586886320976902</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>26.68248900019972</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>290.7573083634226</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.20996526433426</v>
+        <v>36.20996526433481</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>100.8920399382137</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>141.4377346857758</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>52.95783295555771</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>35.80215787152343</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>108.1231337502628</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.34270184147255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>255.1805474109864</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>215.7838235834851</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23907,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>126.6327747750035</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.255751353300241</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>89.49498218058289</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>38.54700077267808</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>227.1771453250284</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>319.0010639722455</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>85.51783882994251</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>136.96988669499</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>159.6364462020382</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>115.9336969942457</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>82.55208449419965</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>197.2854761230479</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>82.87935969080428</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>86.61006163598871</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>83.3252282894417</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>56.46192994813111</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>290.312918237492</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>27.3277671012909</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>182.5570427228545</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>353.0223854144581</v>
       </c>
       <c r="G35" t="n">
-        <v>121.8308626254821</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>109.5593187178199</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.77348281342546</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>29.13105112153258</v>
       </c>
       <c r="U38" t="n">
-        <v>32.47773633174543</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>139.0409798470834</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.35117922901983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>94.8751696997824</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>273.4041678244996</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>119.062949285599</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>72.28912962051905</v>
       </c>
       <c r="T44" t="n">
-        <v>58.67017993786757</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>64.70498037788389</v>
       </c>
       <c r="G46" t="n">
-        <v>120.9189709667722</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1024091.174061777</v>
+        <v>1024091.174061776</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>993605.6324557296</v>
+        <v>993605.6324557302</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807442.6222317873</v>
+        <v>807442.6222317871</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>807442.622231787</v>
+        <v>807442.6222317871</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>807442.6222317872</v>
+        <v>807442.6222317871</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>807442.6222317871</v>
+        <v>807442.6222317872</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>807442.6222317873</v>
+        <v>807442.6222317871</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>807442.6222317872</v>
+        <v>807442.6222317871</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719626</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719626</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165592</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="G2" t="n">
         <v>392146.6638165589</v>
       </c>
       <c r="H2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="I2" t="n">
         <v>392146.663816559</v>
       </c>
       <c r="J2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="K2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="L2" t="n">
         <v>392146.6638165588</v>
       </c>
       <c r="M2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="N2" t="n">
         <v>392146.6638165588</v>
       </c>
-      <c r="N2" t="n">
-        <v>392146.6638165589</v>
-      </c>
       <c r="O2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="P2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.663816559</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.4137109815</v>
+        <v>792647.413710985</v>
       </c>
       <c r="C3" t="n">
-        <v>3.312750777695328e-09</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>193747.2377198185</v>
+        <v>193747.237719815</v>
       </c>
       <c r="E3" t="n">
-        <v>268521.3695157125</v>
+        <v>268521.3695157156</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.015718897993792e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>43022.56888020201</v>
+        <v>43022.56888020196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.343630628980463e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189891.8124216195</v>
+        <v>189891.8124216188</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>150202.5992173783</v>
+        <v>150202.5992173791</v>
       </c>
       <c r="E4" t="n">
         <v>6720.683277029938</v>
       </c>
       <c r="F4" t="n">
-        <v>6720.683277029948</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="G4" t="n">
         <v>6720.683277029938</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747552</v>
+        <v>86618.07783747559</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747559</v>
       </c>
       <c r="D5" t="n">
-        <v>91549.90961777349</v>
+        <v>91549.9096177734</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-597058.2862981136</v>
+        <v>-597058.2862981168</v>
       </c>
       <c r="C6" t="n">
-        <v>195589.1274128649</v>
+        <v>195589.1274128683</v>
       </c>
       <c r="D6" t="n">
-        <v>36599.27111699278</v>
+        <v>36599.27111699543</v>
       </c>
       <c r="E6" t="n">
-        <v>42598.27046242337</v>
+        <v>39122.08116435904</v>
       </c>
       <c r="F6" t="n">
-        <v>311119.639978136</v>
+        <v>307643.4506800746</v>
       </c>
       <c r="G6" t="n">
-        <v>311119.6399781358</v>
+        <v>307643.4506800746</v>
       </c>
       <c r="H6" t="n">
-        <v>311119.6399781351</v>
+        <v>307643.4506800747</v>
       </c>
       <c r="I6" t="n">
-        <v>311119.6399781359</v>
+        <v>307643.4506800746</v>
       </c>
       <c r="J6" t="n">
-        <v>138758.6475778549</v>
+        <v>135282.4582797937</v>
       </c>
       <c r="K6" t="n">
-        <v>311119.6399781358</v>
+        <v>307643.4506800746</v>
       </c>
       <c r="L6" t="n">
-        <v>311119.6399781356</v>
+        <v>307643.4506800745</v>
       </c>
       <c r="M6" t="n">
-        <v>268097.0710979336</v>
+        <v>264620.8817998727</v>
       </c>
       <c r="N6" t="n">
-        <v>311119.6399781358</v>
+        <v>307643.4506800745</v>
       </c>
       <c r="O6" t="n">
-        <v>311119.6399781358</v>
+        <v>307643.4506800745</v>
       </c>
       <c r="P6" t="n">
-        <v>311119.6399781354</v>
+        <v>307643.4506800747</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380614</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>819.7069159480604</v>
+        <v>819.7069159480562</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26798,13 +26798,13 @@
         <v>658.7614942451607</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022928</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380614</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>3.637978807091713e-12</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>226.2308156099953</v>
+        <v>226.2308156099912</v>
       </c>
       <c r="E3" t="n">
-        <v>270.0697846452381</v>
+        <v>270.0697846452421</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.313673211405653e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,16 +27020,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>172.6399611571323</v>
+        <v>172.639961157132</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27044,16 +27044,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.6399611571323</v>
+        <v>172.6399611571321</v>
       </c>
       <c r="N4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.6399611571323</v>
+        <v>172.639961157132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>293.1185938415649</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281405</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.6518631149661</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>125.4629657284151</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,25 +27542,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.2665578794172</v>
+        <v>60.68140124480932</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176945</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677916</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001188</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>97.11634323960104</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>116.2794188025275</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>46.95124804634237</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>168.0408651732316</v>
+        <v>144.7853268581566</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>183.964229623298</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>284.6975796894207</v>
       </c>
       <c r="H8" t="n">
-        <v>305.7267681340463</v>
+        <v>305.7267681340464</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>83.43367498914985</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9283254770336</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.6706554955379</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0820285730592</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.5128193460934</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>149.0849862156822</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>110.998172009944</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>110.8299420939055</v>
+        <v>110.8299420939058</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>198.2563003669325</v>
       </c>
       <c r="T10" t="n">
         <v>221.6298148299932</v>
@@ -28070,16 +28070,16 @@
         <v>286.2384024467255</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>73.07943591606323</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.958884949717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198235</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055143</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651505</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937389</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779002</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712508</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074799</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359644</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822494</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>343.085849542668</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457561</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411488</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810484</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916528</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358588</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840358</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985294</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182814</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847376</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070416</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512805</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842435</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900633</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947058</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671559</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607447</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080756</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784612</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308285</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U3" t="n">
-        <v>0.083982467028971</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888307</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838206958</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784111</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490332</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790233</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889944</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676916</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441081</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714128</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720912</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104727</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937788</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>18.6507161368535</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522766</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390774</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.295304184715818</v>
+        <v>3.295304184715802</v>
       </c>
       <c r="H8" t="n">
-        <v>33.74803398172088</v>
+        <v>33.74803398172071</v>
       </c>
       <c r="I8" t="n">
-        <v>127.0422145812567</v>
+        <v>127.0422145812561</v>
       </c>
       <c r="J8" t="n">
-        <v>279.6848235475244</v>
+        <v>279.684823547523</v>
       </c>
       <c r="K8" t="n">
-        <v>419.1750496865451</v>
+        <v>419.175049686543</v>
       </c>
       <c r="L8" t="n">
-        <v>520.023715129542</v>
+        <v>520.0237151295393</v>
       </c>
       <c r="M8" t="n">
-        <v>578.6265809244819</v>
+        <v>578.6265809244788</v>
       </c>
       <c r="N8" t="n">
-        <v>587.9893639393057</v>
+        <v>587.9893639393027</v>
       </c>
       <c r="O8" t="n">
-        <v>555.2216829525378</v>
+        <v>555.2216829525349</v>
       </c>
       <c r="P8" t="n">
-        <v>473.8688608923659</v>
+        <v>473.8688608923635</v>
       </c>
       <c r="Q8" t="n">
-        <v>355.8557797772306</v>
+        <v>355.8557797772287</v>
       </c>
       <c r="R8" t="n">
-        <v>206.9986514931552</v>
+        <v>206.9986514931541</v>
       </c>
       <c r="S8" t="n">
-        <v>75.09174410921179</v>
+        <v>75.0917441092114</v>
       </c>
       <c r="T8" t="n">
-        <v>14.4251940685935</v>
+        <v>14.42519406859343</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2636243347772654</v>
+        <v>0.263624334777264</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.763143177699602</v>
+        <v>1.763143177699593</v>
       </c>
       <c r="H9" t="n">
-        <v>17.02825121620405</v>
+        <v>17.02825121620396</v>
       </c>
       <c r="I9" t="n">
-        <v>60.70471028483279</v>
+        <v>60.70471028483247</v>
       </c>
       <c r="J9" t="n">
-        <v>166.5783648720488</v>
+        <v>166.578364872048</v>
       </c>
       <c r="K9" t="n">
-        <v>284.7089577779221</v>
+        <v>284.7089577779207</v>
       </c>
       <c r="L9" t="n">
-        <v>382.8263290000824</v>
+        <v>382.8263290000805</v>
       </c>
       <c r="M9" t="n">
-        <v>446.7402691916929</v>
+        <v>446.7402691916906</v>
       </c>
       <c r="N9" t="n">
-        <v>458.5641548000381</v>
+        <v>458.5641548000357</v>
       </c>
       <c r="O9" t="n">
-        <v>419.496613862589</v>
+        <v>419.4966138625869</v>
       </c>
       <c r="P9" t="n">
-        <v>336.6830160994968</v>
+        <v>336.683016099495</v>
       </c>
       <c r="Q9" t="n">
-        <v>225.0636800165316</v>
+        <v>225.0636800165305</v>
       </c>
       <c r="R9" t="n">
-        <v>109.4695386996297</v>
+        <v>109.4695386996291</v>
       </c>
       <c r="S9" t="n">
-        <v>32.74961121735881</v>
+        <v>32.74961121735864</v>
       </c>
       <c r="T9" t="n">
-        <v>7.106704299587427</v>
+        <v>7.106704299587391</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1159962616907633</v>
+        <v>0.1159962616907627</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.478160012365355</v>
+        <v>1.478160012365347</v>
       </c>
       <c r="H10" t="n">
-        <v>13.14218629175744</v>
+        <v>13.14218629175737</v>
       </c>
       <c r="I10" t="n">
-        <v>44.4523029173145</v>
+        <v>44.45230291731427</v>
       </c>
       <c r="J10" t="n">
-        <v>104.5059128742306</v>
+        <v>104.50591287423</v>
       </c>
       <c r="K10" t="n">
-        <v>171.7353178002657</v>
+        <v>171.7353178002649</v>
       </c>
       <c r="L10" t="n">
-        <v>219.7620803838456</v>
+        <v>219.7620803838445</v>
       </c>
       <c r="M10" t="n">
-        <v>231.7083008474164</v>
+        <v>231.7083008474152</v>
       </c>
       <c r="N10" t="n">
-        <v>226.1987953467821</v>
+        <v>226.198795346781</v>
       </c>
       <c r="O10" t="n">
-        <v>208.9311988386958</v>
+        <v>208.9311988386948</v>
       </c>
       <c r="P10" t="n">
-        <v>178.7767345864425</v>
+        <v>178.7767345864416</v>
       </c>
       <c r="Q10" t="n">
-        <v>123.7757443081571</v>
+        <v>123.7757443081565</v>
       </c>
       <c r="R10" t="n">
-        <v>66.46344928326403</v>
+        <v>66.46344928326369</v>
       </c>
       <c r="S10" t="n">
-        <v>25.76029767003985</v>
+        <v>25.76029767003972</v>
       </c>
       <c r="T10" t="n">
-        <v>6.315774598288332</v>
+        <v>6.3157745982883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08062690976538307</v>
+        <v>0.08062690976538267</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.5453525391264</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>152.2131223350936</v>
+        <v>152.2131223350783</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012636</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
-        <v>638.0987989730396</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513577</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605627</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
-        <v>433.6515619588811</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.6524856312113</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.8578301584797</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268262</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L3" t="n">
-        <v>509.4561008748655</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>647.0155045122251</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N3" t="n">
-        <v>257.6064425778052</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O3" t="n">
-        <v>554.9858674269909</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P3" t="n">
-        <v>428.2502711927628</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472323</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531405</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493105</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295322</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233367</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854525</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369847</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899352889</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>547.235124084995</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>198.4634459340622</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>157.8338507272583</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>138.615755571408</v>
@@ -35026,16 +35026,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>381.4911589188591</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>98.63891902083816</v>
+        <v>98.63891902083674</v>
       </c>
       <c r="K8" t="n">
-        <v>199.0851986415645</v>
+        <v>199.0851986415624</v>
       </c>
       <c r="L8" t="n">
-        <v>284.2573001595547</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="M8" t="n">
-        <v>348.2803476972092</v>
+        <v>348.2803476972061</v>
       </c>
       <c r="N8" t="n">
-        <v>358.5763003427148</v>
+        <v>358.5763003427118</v>
       </c>
       <c r="O8" t="n">
-        <v>409.2916312173893</v>
+        <v>511.7716024111801</v>
       </c>
       <c r="P8" t="n">
-        <v>564.434573308579</v>
+        <v>242.635865137094</v>
       </c>
       <c r="Q8" t="n">
-        <v>345.8650805626858</v>
+        <v>133.5500899027793</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>57.12953355200446</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>39.74073820538212</v>
+        <v>39.74073820538126</v>
       </c>
       <c r="K9" t="n">
-        <v>146.8675188035631</v>
+        <v>411.3327558161403</v>
       </c>
       <c r="L9" t="n">
-        <v>615.1122945236674</v>
+        <v>615.1122945236655</v>
       </c>
       <c r="M9" t="n">
-        <v>304.6062352696746</v>
+        <v>304.6062352696723</v>
       </c>
       <c r="N9" t="n">
-        <v>327.2224427167048</v>
+        <v>327.2224427167024</v>
       </c>
       <c r="O9" t="n">
-        <v>303.5828584183443</v>
+        <v>276.9003694181424</v>
       </c>
       <c r="P9" t="n">
-        <v>521.1713773251038</v>
+        <v>493.4659170485874</v>
       </c>
       <c r="Q9" t="n">
-        <v>295.1591936663592</v>
+        <v>85.08190593050898</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.1467327575578</v>
+        <v>11.14673275755726</v>
       </c>
       <c r="K10" t="n">
-        <v>149.4658259743829</v>
+        <v>149.465825974382</v>
       </c>
       <c r="L10" t="n">
-        <v>247.3521056441617</v>
+        <v>247.3521056441606</v>
       </c>
       <c r="M10" t="n">
-        <v>271.2921778092571</v>
+        <v>271.2921778092558</v>
       </c>
       <c r="N10" t="n">
-        <v>270.3309677260107</v>
+        <v>270.3309677260096</v>
       </c>
       <c r="O10" t="n">
-        <v>233.5163267527355</v>
+        <v>233.5163267527344</v>
       </c>
       <c r="P10" t="n">
-        <v>176.055293851336</v>
+        <v>176.0552938513351</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.61370105646274</v>
+        <v>37.61370105646211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1131533.859022984</v>
+        <v>1149151.308887063</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.1596681267294</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>88.81177623069686</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>118.4960408938903</v>
@@ -712,16 +712,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183545</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>62.58515663460766</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>54.46501264476349</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>73.33150690765585</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>71.54479284754792</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>78.58757786260207</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>150.4581840836503</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>45.11404658326398</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>127.3098536409985</v>
+        <v>412.0074333304192</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>305.7267681340464</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>83.43367498914986</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9283254770339</v>
+        <v>133.928325477034</v>
       </c>
       <c r="T8" t="n">
         <v>208.6706554955379</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>95.20719302029249</v>
       </c>
       <c r="I9" t="n">
-        <v>28.6919225665826</v>
+        <v>28.69192256658261</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>206.1904156701275</v>
       </c>
       <c r="V10" t="n">
-        <v>179.0582074077648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>316.7197341507574</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>253.7910016824693</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>57.98576519627201</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>328.9725371167041</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>105.0023863360953</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>36.63188116405794</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>78.53455727340442</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>232.877088770352</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>170.4541150725685</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
         <v>74.7576914549238</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>321.4267434728706</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>112.558388846905</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.0376525794167</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>138.0957464459792</v>
+        <v>226.1265775300251</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.7368957119603925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>80.50796942908572</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2560,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>108.526202247763</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>233.3072717231673</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.27989568773765</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>194.9437214015084</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>174.9123239800296</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>328.0423659626492</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>31.52072535629967</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>58.81098638694253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>188.2196394312111</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>95.92502041856162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>24.97383429440675</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>118.0932809216403</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>72.66855308871959</v>
       </c>
       <c r="F35" t="n">
-        <v>53.85366032725333</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>167.9628305562767</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>35.19569619650092</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>242.3977510333375</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>174.7869190180876</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>6.380068175847859</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>12.3892019929409</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3748,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>14.31259208839343</v>
+        <v>93.11298522381134</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>60.76903089633826</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>16.5479261871282</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>36.89863216765678</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>104.6737263919361</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>80.71606764504736</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>279.9696921181385</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1408.399556799664</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="C2" t="n">
-        <v>1408.399556799664</v>
+        <v>1744.521527897677</v>
       </c>
       <c r="D2" t="n">
-        <v>1408.399556799664</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="E2" t="n">
-        <v>1318.690691920173</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F2" t="n">
-        <v>907.7047871305651</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G2" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H2" t="n">
         <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K2" t="n">
-        <v>392.0318096650767</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L2" t="n">
-        <v>531.3604655063299</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M2" t="n">
-        <v>1163.078276489642</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N2" t="n">
-        <v>1790.385944549488</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O2" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P2" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4360,22 +4360,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.830939477471</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.7680521339</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.999396863786</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.999396863786</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="Y2" t="n">
-        <v>1794.999396863786</v>
+        <v>2010.339374490333</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H3" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L3" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M3" t="n">
-        <v>1232.272002033951</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N3" t="n">
-        <v>1430.928743686616</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O3" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P3" t="n">
         <v>2404.332520920175</v>
@@ -4448,10 +4448,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
         <v>1134.337940986287</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1052.635600998958</v>
+        <v>369.5501960499129</v>
       </c>
       <c r="C4" t="n">
-        <v>883.6994180710508</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D4" t="n">
-        <v>733.582778658715</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E4" t="n">
-        <v>585.6696850763219</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>438.7797375784115</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>270.1728925737949</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>115.91824947356</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
         <v>153.7488491352227</v>
@@ -4512,28 +4512,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.635600998958</v>
+        <v>997.6204367113178</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.635600998958</v>
+        <v>997.6204367113178</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.635600998958</v>
+        <v>771.9912400236827</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.635600998958</v>
+        <v>771.9912400236827</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.635600998958</v>
+        <v>771.9912400236827</v>
       </c>
       <c r="W4" t="n">
-        <v>1052.635600998958</v>
+        <v>771.9912400236827</v>
       </c>
       <c r="X4" t="n">
-        <v>1052.635600998958</v>
+        <v>771.9912400236827</v>
       </c>
       <c r="Y4" t="n">
-        <v>1052.635600998958</v>
+        <v>551.1986608801526</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.0420736155686</v>
+        <v>2088.691607501659</v>
       </c>
       <c r="C5" t="n">
-        <v>953.0420736155686</v>
+        <v>1719.729090561247</v>
       </c>
       <c r="D5" t="n">
-        <v>953.0420736155686</v>
+        <v>1361.463391954497</v>
       </c>
       <c r="E5" t="n">
-        <v>953.0420736155686</v>
+        <v>975.6751393562524</v>
       </c>
       <c r="F5" t="n">
-        <v>542.0561688259611</v>
+        <v>564.6892345666449</v>
       </c>
       <c r="G5" t="n">
-        <v>124.9683870623886</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
-        <v>124.9683870623886</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L5" t="n">
-        <v>1030.215540799241</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M5" t="n">
-        <v>1216.914953624649</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N5" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P5" t="n">
         <v>2389.870016205742</v>
@@ -4597,22 +4597,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.339374490333</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.276487146763</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W5" t="n">
-        <v>1326.507831876648</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X5" t="n">
-        <v>953.0420736155686</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.0420736155686</v>
+        <v>2088.691607501659</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G6" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H6" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
         <v>171.3601713965085</v>
@@ -4655,13 +4655,13 @@
         <v>638.0181737180123</v>
       </c>
       <c r="M6" t="n">
-        <v>1278.563523185117</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N6" t="n">
-        <v>1477.220264837782</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>2026.656273590505</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4670,7 +4670,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S6" t="n">
         <v>2464.467288245464</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.1020327962314</v>
+        <v>515.4951877916146</v>
       </c>
       <c r="C7" t="n">
-        <v>684.1020327962314</v>
+        <v>515.4951877916146</v>
       </c>
       <c r="D7" t="n">
-        <v>533.9853933838956</v>
+        <v>365.3785483792789</v>
       </c>
       <c r="E7" t="n">
-        <v>386.0722998015025</v>
+        <v>217.4654547968858</v>
       </c>
       <c r="F7" t="n">
-        <v>239.1823523035921</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897548</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897548</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897548</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K7" t="n">
         <v>153.7488491352227</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T7" t="n">
-        <v>973.2542092185515</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U7" t="n">
-        <v>684.1020327962314</v>
+        <v>770.1796759975015</v>
       </c>
       <c r="V7" t="n">
-        <v>684.1020327962314</v>
+        <v>515.4951877916146</v>
       </c>
       <c r="W7" t="n">
-        <v>684.1020327962314</v>
+        <v>515.4951877916146</v>
       </c>
       <c r="X7" t="n">
-        <v>684.1020327962314</v>
+        <v>515.4951877916146</v>
       </c>
       <c r="Y7" t="n">
-        <v>684.1020327962314</v>
+        <v>515.4951877916146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>978.0708886860491</v>
+        <v>1704.305302217242</v>
       </c>
       <c r="C8" t="n">
-        <v>978.0708886860491</v>
+        <v>1704.305302217242</v>
       </c>
       <c r="D8" t="n">
-        <v>978.0708886860491</v>
+        <v>1658.735558193743</v>
       </c>
       <c r="E8" t="n">
-        <v>592.2826360878048</v>
+        <v>1272.947305595499</v>
       </c>
       <c r="F8" t="n">
-        <v>181.2967312981972</v>
+        <v>861.9614008058913</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961286</v>
+        <v>445.7922762297102</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961286</v>
+        <v>136.9773589225925</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>150.3534493702412</v>
+        <v>317.7590983905942</v>
       </c>
       <c r="K8" t="n">
-        <v>347.447796025388</v>
+        <v>514.853445045741</v>
       </c>
       <c r="L8" t="n">
-        <v>999.6216753280971</v>
+        <v>796.2681722036975</v>
       </c>
       <c r="M8" t="n">
-        <v>1344.419219548331</v>
+        <v>1141.065716423932</v>
       </c>
       <c r="N8" t="n">
-        <v>1699.409756887616</v>
+        <v>1496.056253763216</v>
       </c>
       <c r="O8" t="n">
-        <v>2206.063643274684</v>
+        <v>1817.928490578756</v>
       </c>
       <c r="P8" t="n">
-        <v>2446.273149760407</v>
+        <v>2236.081309007101</v>
       </c>
       <c r="Q8" t="n">
-        <v>2578.487738764159</v>
+        <v>2578.487738764158</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2499.764840135154</v>
+        <v>2499.764840135153</v>
       </c>
       <c r="T8" t="n">
-        <v>2288.986400240672</v>
+        <v>2288.986400240671</v>
       </c>
       <c r="U8" t="n">
-        <v>2035.368189560814</v>
+        <v>2035.368189560813</v>
       </c>
       <c r="V8" t="n">
-        <v>1704.305302217243</v>
+        <v>1704.305302217242</v>
       </c>
       <c r="W8" t="n">
-        <v>1351.536646947129</v>
+        <v>1704.305302217242</v>
       </c>
       <c r="X8" t="n">
-        <v>978.0708886860491</v>
+        <v>1704.305302217242</v>
       </c>
       <c r="Y8" t="n">
-        <v>978.0708886860491</v>
+        <v>1704.305302217242</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>81.68265950585791</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>92.04425036294032</v>
+        <v>216.874375349945</v>
       </c>
       <c r="K9" t="n">
-        <v>499.2636786209192</v>
+        <v>624.0938036079237</v>
       </c>
       <c r="L9" t="n">
-        <v>1108.224850199348</v>
+        <v>1233.054975186353</v>
       </c>
       <c r="M9" t="n">
-        <v>1409.785023116323</v>
+        <v>1534.615148103328</v>
       </c>
       <c r="N9" t="n">
-        <v>1733.735241405859</v>
+        <v>2021.584976685647</v>
       </c>
       <c r="O9" t="n">
-        <v>2007.86660712982</v>
+        <v>2295.716342409608</v>
       </c>
       <c r="P9" t="n">
         <v>2496.397865007921</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>516.4401435478233</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>347.5039606199164</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5039606199164</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>63.73618496959455</v>
+        <v>63.73618496959453</v>
       </c>
       <c r="K10" t="n">
         <v>211.7073526842327</v>
@@ -4971,43 +4971,43 @@
         <v>456.5859372719517</v>
       </c>
       <c r="M10" t="n">
-        <v>725.165193303115</v>
+        <v>725.1651933031148</v>
       </c>
       <c r="N10" t="n">
-        <v>992.7928513518644</v>
+        <v>992.7928513518643</v>
       </c>
       <c r="O10" t="n">
-        <v>1223.974014837072</v>
+        <v>1223.974014837071</v>
       </c>
       <c r="P10" t="n">
         <v>1398.268755749893</v>
       </c>
       <c r="Q10" t="n">
-        <v>1435.506319795791</v>
+        <v>1435.50631979579</v>
       </c>
       <c r="R10" t="n">
-        <v>1435.506319795791</v>
+        <v>1435.50631979579</v>
       </c>
       <c r="S10" t="n">
-        <v>1435.506319795791</v>
+        <v>1435.50631979579</v>
       </c>
       <c r="T10" t="n">
-        <v>1435.506319795791</v>
+        <v>1435.50631979579</v>
       </c>
       <c r="U10" t="n">
-        <v>1435.506319795791</v>
+        <v>1227.233172654247</v>
       </c>
       <c r="V10" t="n">
-        <v>1254.639443626331</v>
+        <v>972.5486844483605</v>
       </c>
       <c r="W10" t="n">
-        <v>965.2222735893707</v>
+        <v>683.1315144114</v>
       </c>
       <c r="X10" t="n">
-        <v>737.2327226913534</v>
+        <v>455.1419635133826</v>
       </c>
       <c r="Y10" t="n">
-        <v>516.4401435478233</v>
+        <v>234.3493843698525</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1517.887535471216</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1148.925018530804</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
         <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535337</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.487375535337</v>
+        <v>2325.505862906804</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>271.9735439263281</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>271.9735439263281</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>271.9735439263281</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>674.414587900098</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>453.6220087565679</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2291.674678112795</v>
+        <v>1285.591601078696</v>
       </c>
       <c r="C14" t="n">
-        <v>1922.712161172384</v>
+        <v>916.6290841382845</v>
       </c>
       <c r="D14" t="n">
-        <v>1564.446462565633</v>
+        <v>558.363385531534</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>172.5751329332898</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176917</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="W14" t="n">
-        <v>2678.274518176917</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X14" t="n">
-        <v>2678.274518176917</v>
+        <v>2062.33077311863</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.274518176917</v>
+        <v>1672.191441142818</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5363,7 +5363,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>717.3698800184446</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="C16" t="n">
-        <v>548.4336970905377</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D16" t="n">
-        <v>398.317057678202</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E16" t="n">
-        <v>250.4039640958089</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>103.5140165978985</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>103.5140165978985</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5466,22 +5466,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1847.966712458791</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783662</v>
+        <v>1558.863845584435</v>
       </c>
       <c r="V16" t="n">
-        <v>1416.425065783662</v>
+        <v>1304.179357378548</v>
       </c>
       <c r="W16" t="n">
-        <v>1127.007895746702</v>
+        <v>1014.762187341587</v>
       </c>
       <c r="X16" t="n">
-        <v>899.0183448486844</v>
+        <v>786.77263644357</v>
       </c>
       <c r="Y16" t="n">
-        <v>899.0183448486844</v>
+        <v>565.9800573000399</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1636.624422581789</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5515,13 +5515,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923659</v>
+        <v>2980.08577053995</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653544</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392465</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y17" t="n">
-        <v>1636.624422581789</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C19" t="n">
         <v>66.51211643218342</v>
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2212.771568013855</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C20" t="n">
-        <v>1843.809051073443</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D20" t="n">
-        <v>1485.543352466693</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E20" t="n">
-        <v>1099.755099868448</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F20" t="n">
-        <v>688.769195078841</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3211.91047933957</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2958.380002613407</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339057</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077977</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y20" t="n">
-        <v>2599.371408077977</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>793.5839474470786</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C22" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D22" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5940,22 +5940,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1735.608663915319</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U22" t="n">
-        <v>1446.505797040963</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>1446.505797040963</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>1157.088627004002</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>1157.088627004002</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>975.2324122773183</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1032.061124352531</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C23" t="n">
-        <v>892.5704713767946</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
         <v>892.5704713767946</v>
@@ -5989,16 +5989,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6019,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923659</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392465</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y23" t="n">
-        <v>1418.660964416653</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>463.6594280995014</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C25" t="n">
-        <v>294.7232451715945</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="D25" t="n">
-        <v>294.7232451715945</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>294.7232451715945</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>147.8332976736841</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6177,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.507193008249</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W25" t="n">
-        <v>1094.090022971289</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X25" t="n">
-        <v>866.1004720732712</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y25" t="n">
-        <v>645.3078929297411</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1575.915835277607</v>
+        <v>1771.41801219738</v>
       </c>
       <c r="C26" t="n">
-        <v>1206.953318337195</v>
+        <v>1402.455495256968</v>
       </c>
       <c r="D26" t="n">
-        <v>1206.953318337195</v>
+        <v>1044.189796650218</v>
       </c>
       <c r="E26" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6259,19 +6259,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V26" t="n">
-        <v>2961.784676410102</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W26" t="n">
-        <v>2726.12076557862</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X26" t="n">
-        <v>2352.65500731754</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y26" t="n">
-        <v>1962.515675341729</v>
+        <v>2158.017852261502</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.4482993600903</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6411,25 +6411,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1326.59460854119</v>
+        <v>1227.09874134186</v>
       </c>
       <c r="V28" t="n">
-        <v>1071.910120335303</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W28" t="n">
-        <v>782.4929502983425</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X28" t="n">
-        <v>554.5033994003252</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y28" t="n">
-        <v>333.710820256795</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1921.870414581995</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1552.907897641583</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1194.642199034832</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>808.8539464365881</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>397.8680416469805</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>3072.075344883008</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>3072.075344883008</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>2698.609586621928</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y29" t="n">
-        <v>2308.470254646116</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>521.2725633630544</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>521.2725633630544</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>371.1559239507186</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>223.2428303683255</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W31" t="n">
-        <v>970.0546934046018</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X31" t="n">
-        <v>742.0651425065845</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y31" t="n">
-        <v>521.2725633630544</v>
+        <v>879.9099329995254</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>298.629863103029</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2862.546497866152</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X32" t="n">
-        <v>2489.080739605072</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>651.5308283972846</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C34" t="n">
-        <v>651.5308283972846</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D34" t="n">
-        <v>501.4141889849489</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E34" t="n">
-        <v>353.5010954025557</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218342</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X34" t="n">
-        <v>872.3234075408147</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y34" t="n">
-        <v>651.5308283972846</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796265</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C35" t="n">
-        <v>921.7704558796265</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="D35" t="n">
-        <v>921.7704558796265</v>
+        <v>894.5676446164455</v>
       </c>
       <c r="E35" t="n">
-        <v>535.9822032813822</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943748</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
         <v>2407.411984886741</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>270.9995076393842</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C37" t="n">
-        <v>102.0633247114773</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D37" t="n">
-        <v>102.0633247114773</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>102.0633247114773</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>102.0633247114773</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>102.0633247114773</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610489</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046018</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676413</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696239</v>
+        <v>1065.68718486776</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.6479724696239</v>
+        <v>844.89460572423</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1204.726236768953</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C38" t="n">
-        <v>835.7637198285415</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D38" t="n">
-        <v>477.498021221791</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912079</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3038.762709683652</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3038.762709683652</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2707.699822340081</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W38" t="n">
-        <v>2354.931167069967</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X38" t="n">
-        <v>1981.465408808887</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y38" t="n">
-        <v>1591.326076833075</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.8928126690276</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C40" t="n">
-        <v>72.95662974112065</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>72.95662974112065</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>72.95662974112065</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7362,22 +7362,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>872.3234075408147</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X40" t="n">
-        <v>644.3338566427974</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y40" t="n">
-        <v>423.5412774992673</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1477.112184968822</v>
+        <v>1544.306735920717</v>
       </c>
       <c r="C41" t="n">
-        <v>1108.149668028411</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D41" t="n">
-        <v>749.8839694216604</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7423,40 +7423,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3311.148657883521</v>
+        <v>3231.552301181079</v>
       </c>
       <c r="T41" t="n">
-        <v>3311.148657883521</v>
+        <v>3025.574553565301</v>
       </c>
       <c r="U41" t="n">
-        <v>3311.148657883521</v>
+        <v>3025.574553565301</v>
       </c>
       <c r="V41" t="n">
-        <v>2980.08577053995</v>
+        <v>2694.511666221731</v>
       </c>
       <c r="W41" t="n">
-        <v>2627.317115269836</v>
+        <v>2694.511666221731</v>
       </c>
       <c r="X41" t="n">
-        <v>2253.851357008756</v>
+        <v>2321.045907960651</v>
       </c>
       <c r="Y41" t="n">
-        <v>1863.712025032944</v>
+        <v>1930.906575984839</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.3679798527295</v>
+        <v>695.8497105067988</v>
       </c>
       <c r="C43" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U43" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V43" t="n">
-        <v>1259.157560278958</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W43" t="n">
-        <v>969.7403902419976</v>
+        <v>1326.280305378586</v>
       </c>
       <c r="X43" t="n">
-        <v>741.7508393439803</v>
+        <v>1098.290754480569</v>
       </c>
       <c r="Y43" t="n">
-        <v>741.7508393439803</v>
+        <v>877.4981753370386</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1678.62132134232</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
@@ -7648,16 +7648,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.334475985275</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3082.356728369497</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2828.826251643334</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>2828.826251643334</v>
+        <v>3109.584116376734</v>
       </c>
       <c r="W44" t="n">
-        <v>2828.826251643334</v>
+        <v>3109.584116376734</v>
       </c>
       <c r="X44" t="n">
-        <v>2455.360493382254</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y44" t="n">
-        <v>2065.221161406442</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>463.6594280995014</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C46" t="n">
-        <v>463.6594280995014</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D46" t="n">
-        <v>463.6594280995014</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>315.7463345171083</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
         <v>234.2149530574645</v>
@@ -7839,19 +7839,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1644.496879282292</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.507193008249</v>
+        <v>1389.812391076405</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971289</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="X46" t="n">
-        <v>866.1004720732712</v>
+        <v>1100.395221039445</v>
       </c>
       <c r="Y46" t="n">
-        <v>645.3078929297411</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.81599650215671</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,13 +7993,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>48.10560617263553</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.166261194686115</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8303,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>418.9459514760943</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>271.703656366032</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>374.5041940856087</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>186.6481308803319</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>179.7407191339619</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>164.6662730230138</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>290.7573083634226</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.20996526433481</v>
+        <v>36.20996526433483</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>66.01410751272317</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>100.8920399382137</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>88.44819745029716</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>52.95783295555771</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>301.8736594056161</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>108.1231337502628</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23706,13 +23706,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>141.0143920027648</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>94.87516969978287</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>215.7838235834851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370403</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>89.49498218058289</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>91.35958129271512</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.54700077267808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>227.1771453250284</v>
+        <v>139.1463142409825</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>147.878577306252</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.51783882994251</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,10 +24417,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>273.4041678244988</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>115.9336969942457</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.55208449419965</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>91.26811680410452</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>207.821517683451</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>82.87935969080428</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24733,22 +24733,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>148.3112548256376</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>86.61006163598871</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>106.3881249561093</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>290.312918237492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>154.8581458875306</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>27.3277671012909</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,22 +25159,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>309.2618169835422</v>
       </c>
       <c r="F35" t="n">
-        <v>353.0223854144581</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>11.86914962566061</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>109.5593187178199</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>139.5326190389243</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>29.13105112153258</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>139.0409798470834</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25602,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>213.3204533960962</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>94.8751696997824</v>
+        <v>16.0747765643645</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>119.062949285599</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>150.6988949114996</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.28912962051905</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>223.0785320781988</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>64.70498037788389</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>6.242146087474339</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807442.6222317871</v>
+        <v>807442.6222317872</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807442.6222317872</v>
+        <v>807442.6222317873</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>807442.6222317871</v>
+        <v>807442.6222317873</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807442.6222317872</v>
+        <v>807442.6222317871</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>807442.6222317872</v>
+        <v>807442.6222317871</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>807442.6222317871</v>
+        <v>807442.6222317872</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719626</v>
+        <v>472099.0176719627</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165589</v>
+        <v>392146.6638165591</v>
       </c>
       <c r="G2" t="n">
         <v>392146.6638165589</v>
@@ -26334,28 +26334,28 @@
         <v>392146.663816559</v>
       </c>
       <c r="I2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="J2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="K2" t="n">
         <v>392146.6638165588</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>392146.6638165589</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>392146.6638165588</v>
       </c>
-      <c r="M2" t="n">
-        <v>392146.663816559</v>
-      </c>
       <c r="N2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165591</v>
       </c>
       <c r="O2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="P2" t="n">
-        <v>392146.663816559</v>
+        <v>392146.6638165589</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.413710985</v>
+        <v>792647.4137109849</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>193747.237719815</v>
+        <v>193747.2377198148</v>
       </c>
       <c r="E3" t="n">
-        <v>268521.3695157156</v>
+        <v>268521.369515716</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>43022.56888020196</v>
+        <v>43022.56888020201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26453,7 +26453,7 @@
         <v>6720.683277029938</v>
       </c>
       <c r="N4" t="n">
-        <v>6720.683277029938</v>
+        <v>6720.683277029919</v>
       </c>
       <c r="O4" t="n">
         <v>6720.683277029938</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747559</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747559</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>91549.9096177734</v>
+        <v>91549.90961777339</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26502,10 +26502,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-597058.2862981168</v>
+        <v>-597058.2862981164</v>
       </c>
       <c r="C6" t="n">
         <v>195589.1274128683</v>
       </c>
       <c r="D6" t="n">
-        <v>36599.27111699543</v>
+        <v>36599.27111699556</v>
       </c>
       <c r="E6" t="n">
-        <v>39122.08116435904</v>
+        <v>42250.6515326136</v>
       </c>
       <c r="F6" t="n">
-        <v>307643.4506800746</v>
+        <v>310772.0210483299</v>
       </c>
       <c r="G6" t="n">
-        <v>307643.4506800746</v>
+        <v>310772.0210483297</v>
       </c>
       <c r="H6" t="n">
-        <v>307643.4506800747</v>
+        <v>310772.0210483296</v>
       </c>
       <c r="I6" t="n">
-        <v>307643.4506800746</v>
+        <v>310772.0210483294</v>
       </c>
       <c r="J6" t="n">
-        <v>135282.4582797937</v>
+        <v>138411.0286480487</v>
       </c>
       <c r="K6" t="n">
-        <v>307643.4506800746</v>
+        <v>310772.0210483294</v>
       </c>
       <c r="L6" t="n">
-        <v>307643.4506800745</v>
+        <v>310772.0210483295</v>
       </c>
       <c r="M6" t="n">
-        <v>264620.8817998727</v>
+        <v>267749.4521681275</v>
       </c>
       <c r="N6" t="n">
-        <v>307643.4506800745</v>
+        <v>310772.0210483298</v>
       </c>
       <c r="O6" t="n">
-        <v>307643.4506800745</v>
+        <v>310772.0210483295</v>
       </c>
       <c r="P6" t="n">
-        <v>307643.4506800747</v>
+        <v>310772.0210483295</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>819.7069159480562</v>
+        <v>819.7069159480561</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>226.2308156099912</v>
+        <v>226.230815609991</v>
       </c>
       <c r="E3" t="n">
-        <v>270.0697846452421</v>
+        <v>270.0697846452425</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>172.639961157132</v>
+        <v>172.6399611571325</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.6399611571321</v>
+        <v>172.6399611571323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>172.639961157132</v>
+        <v>172.6399611571325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>102.1132236442782</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>293.1185938415649</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>60.68140124480932</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
         <v>17.69584188176898</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>74.70816902302782</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>339.5853970382809</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>46.95124804634237</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>144.7853268581566</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>135.8024705744467</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>309.568995037419</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>284.6975796894207</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>305.7267681340464</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>83.43367498914985</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.5128193460934</v>
@@ -28067,10 +28067,10 @@
         <v>221.6298148299932</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2384024467255</v>
+        <v>80.04798677659801</v>
       </c>
       <c r="V10" t="n">
-        <v>73.07943591606323</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31515,19 +31515,19 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.295304184715802</v>
+        <v>3.295304184715801</v>
       </c>
       <c r="H8" t="n">
-        <v>33.74803398172071</v>
+        <v>33.7480339817207</v>
       </c>
       <c r="I8" t="n">
-        <v>127.0422145812561</v>
+        <v>127.042214581256</v>
       </c>
       <c r="J8" t="n">
         <v>279.684823547523</v>
       </c>
       <c r="K8" t="n">
-        <v>419.175049686543</v>
+        <v>419.1750496865429</v>
       </c>
       <c r="L8" t="n">
         <v>520.0237151295393</v>
@@ -31536,13 +31536,13 @@
         <v>578.6265809244788</v>
       </c>
       <c r="N8" t="n">
-        <v>587.9893639393027</v>
+        <v>587.9893639393026</v>
       </c>
       <c r="O8" t="n">
-        <v>555.2216829525349</v>
+        <v>555.2216829525348</v>
       </c>
       <c r="P8" t="n">
-        <v>473.8688608923635</v>
+        <v>473.8688608923634</v>
       </c>
       <c r="Q8" t="n">
         <v>355.8557797772287</v>
@@ -31551,7 +31551,7 @@
         <v>206.9986514931541</v>
       </c>
       <c r="S8" t="n">
-        <v>75.0917441092114</v>
+        <v>75.09174410921139</v>
       </c>
       <c r="T8" t="n">
         <v>14.42519406859343</v>
@@ -31603,37 +31603,37 @@
         <v>60.70471028483247</v>
       </c>
       <c r="J9" t="n">
-        <v>166.578364872048</v>
+        <v>166.5783648720479</v>
       </c>
       <c r="K9" t="n">
-        <v>284.7089577779207</v>
+        <v>284.7089577779206</v>
       </c>
       <c r="L9" t="n">
-        <v>382.8263290000805</v>
+        <v>382.8263290000804</v>
       </c>
       <c r="M9" t="n">
-        <v>446.7402691916906</v>
+        <v>446.7402691916905</v>
       </c>
       <c r="N9" t="n">
         <v>458.5641548000357</v>
       </c>
       <c r="O9" t="n">
-        <v>419.4966138625869</v>
+        <v>419.4966138625868</v>
       </c>
       <c r="P9" t="n">
         <v>336.683016099495</v>
       </c>
       <c r="Q9" t="n">
-        <v>225.0636800165305</v>
+        <v>225.0636800165304</v>
       </c>
       <c r="R9" t="n">
         <v>109.4695386996291</v>
       </c>
       <c r="S9" t="n">
-        <v>32.74961121735864</v>
+        <v>32.74961121735863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.106704299587391</v>
+        <v>7.10670429958739</v>
       </c>
       <c r="U9" t="n">
         <v>0.1159962616907627</v>
@@ -31679,43 +31679,43 @@
         <v>13.14218629175737</v>
       </c>
       <c r="I10" t="n">
-        <v>44.45230291731427</v>
+        <v>44.45230291731426</v>
       </c>
       <c r="J10" t="n">
         <v>104.50591287423</v>
       </c>
       <c r="K10" t="n">
-        <v>171.7353178002649</v>
+        <v>171.7353178002648</v>
       </c>
       <c r="L10" t="n">
-        <v>219.7620803838445</v>
+        <v>219.7620803838444</v>
       </c>
       <c r="M10" t="n">
         <v>231.7083008474152</v>
       </c>
       <c r="N10" t="n">
-        <v>226.198795346781</v>
+        <v>226.1987953467809</v>
       </c>
       <c r="O10" t="n">
-        <v>208.9311988386948</v>
+        <v>208.9311988386947</v>
       </c>
       <c r="P10" t="n">
-        <v>178.7767345864416</v>
+        <v>178.7767345864415</v>
       </c>
       <c r="Q10" t="n">
         <v>123.7757443081565</v>
       </c>
       <c r="R10" t="n">
-        <v>66.46344928326369</v>
+        <v>66.46344928326367</v>
       </c>
       <c r="S10" t="n">
         <v>25.76029767003972</v>
       </c>
       <c r="T10" t="n">
-        <v>6.3157745982883</v>
+        <v>6.315774598288299</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08062690976538267</v>
+        <v>0.08062690976538266</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>152.2131223350783</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M2" t="n">
         <v>638.0987989730422</v>
@@ -34713,13 +34713,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605652</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P2" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>332.7559639452625</v>
@@ -34786,10 +34786,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M3" t="n">
-        <v>229.4160469348626</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>200.663375406732</v>
+        <v>368.6268117378475</v>
       </c>
       <c r="O3" t="n">
         <v>554.9858674269929</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>198.4634459340622</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
@@ -35023,16 +35023,16 @@
         <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>619.6093268828263</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>381.4911589188591</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>98.63891902083674</v>
+        <v>267.7355341929104</v>
       </c>
       <c r="K8" t="n">
         <v>199.0851986415624</v>
       </c>
       <c r="L8" t="n">
-        <v>658.7614942451607</v>
+        <v>284.257300159552</v>
       </c>
       <c r="M8" t="n">
         <v>348.2803476972061</v>
       </c>
       <c r="N8" t="n">
-        <v>358.5763003427118</v>
+        <v>358.5763003427117</v>
       </c>
       <c r="O8" t="n">
-        <v>511.7716024111801</v>
+        <v>325.1234715308481</v>
       </c>
       <c r="P8" t="n">
-        <v>242.635865137094</v>
+        <v>422.3765842710558</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.5500899027793</v>
+        <v>345.8650805626839</v>
       </c>
       <c r="R8" t="n">
-        <v>57.12953355200446</v>
+        <v>57.12953355200443</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>39.74073820538126</v>
+        <v>165.8317735457901</v>
       </c>
       <c r="K9" t="n">
-        <v>411.3327558161403</v>
+        <v>411.3327558161402</v>
       </c>
       <c r="L9" t="n">
         <v>615.1122945236655</v>
       </c>
       <c r="M9" t="n">
-        <v>304.6062352696723</v>
+        <v>304.6062352696722</v>
       </c>
       <c r="N9" t="n">
-        <v>327.2224427167024</v>
+        <v>491.8887157397162</v>
       </c>
       <c r="O9" t="n">
         <v>276.9003694181424</v>
       </c>
       <c r="P9" t="n">
-        <v>493.4659170485874</v>
+        <v>202.7086086851648</v>
       </c>
       <c r="Q9" t="n">
-        <v>85.08190593050898</v>
+        <v>85.08190593050892</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.14673275755726</v>
+        <v>11.14673275755725</v>
       </c>
       <c r="K10" t="n">
         <v>149.465825974382</v>
@@ -35342,16 +35342,16 @@
         <v>271.2921778092558</v>
       </c>
       <c r="N10" t="n">
-        <v>270.3309677260096</v>
+        <v>270.3309677260095</v>
       </c>
       <c r="O10" t="n">
         <v>233.5163267527344</v>
       </c>
       <c r="P10" t="n">
-        <v>176.0552938513351</v>
+        <v>176.055293851335</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.61370105646211</v>
+        <v>37.61370105646209</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687116</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
